--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540570.5464661939</v>
+        <v>554296.904603612</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340007</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="E2" t="n">
         <v>154332.7400023158</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="F4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="G4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="H4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="I4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="J4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="K4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="L4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="M4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="N4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="O4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="P4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61608.5678084633</v>
+        <v>61608.56780846345</v>
       </c>
       <c r="C6" t="n">
-        <v>61608.56780846353</v>
+        <v>61608.56780846333</v>
       </c>
       <c r="D6" t="n">
-        <v>61608.56780846341</v>
+        <v>61608.56780846368</v>
       </c>
       <c r="E6" t="n">
-        <v>-49273.78410647225</v>
+        <v>-49273.78410647233</v>
       </c>
       <c r="F6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="G6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="H6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="I6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="J6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="K6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="L6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="M6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="N6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="O6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
       <c r="P6" t="n">
-        <v>83826.21589352775</v>
+        <v>83826.21589352774</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554296.904603612</v>
+        <v>470511.5028419873</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61608.56780846345</v>
+        <v>61564.43202978232</v>
       </c>
       <c r="C6" t="n">
-        <v>61608.56780846333</v>
+        <v>61564.43202978244</v>
       </c>
       <c r="D6" t="n">
-        <v>61608.56780846368</v>
+        <v>61564.43202978255</v>
       </c>
       <c r="E6" t="n">
-        <v>-49273.78410647233</v>
+        <v>-64083.80094558623</v>
       </c>
       <c r="F6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="G6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="H6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="I6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="J6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="K6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="L6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="M6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="N6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="O6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
       <c r="P6" t="n">
-        <v>83826.21589352774</v>
+        <v>69016.19905441384</v>
       </c>
     </row>
   </sheetData>
